--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blukaniro/dropbox/files/Now/RonFridays2020/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AEE9A1-ABB8-2F46-9204-9B116AEF3ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="25600" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="25600" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="3" r:id="rId1"/>
     <sheet name="Test2" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" calcMode="manual" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -94,11 +100,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,6 +248,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -566,14 +580,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="8" width="12.83203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="12.83203125" style="1"/>
@@ -1450,14 +1464,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="12.83203125" style="1" customWidth="1"/>
   </cols>
